--- a/Modules/kNOT/kNOT_BOM.xlsx
+++ b/Modules/kNOT/kNOT_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\kNOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7283920A-6E5B-45E0-95F6-20FC42DEAD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81BA2F2-E61F-44D0-9D92-B63B4F20D1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
   <si>
     <t>Qty</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>https://www.tme.eu/hr/en/details/cd74hc04e/gates-inverters/texas-instruments/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1195,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,7 +1525,9 @@
       <c r="E16" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1539,6 +1544,9 @@
       </c>
       <c r="E17" t="s">
         <v>30</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1717,6 +1725,7 @@
     <hyperlink ref="F24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="F23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="F22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F16:F17" r:id="rId22" display="https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/" xr:uid="{F7F3E930-C37E-49FD-94C5-C7F28DAE1FF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Modules/kNOT/kNOT_BOM.xlsx
+++ b/Modules/kNOT/kNOT_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\kNOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81BA2F2-E61F-44D0-9D92-B63B4F20D1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6473D08-CCF9-4596-8534-BBBA4291436F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>DIP-14</t>
   </si>
   <si>
-    <t>Quad AND 2 inputs</t>
-  </si>
-  <si>
     <t>Quad Op Amp</t>
   </si>
   <si>
@@ -321,6 +318,9 @@
   </si>
   <si>
     <t>https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/</t>
+  </si>
+  <si>
+    <t>Hex Inverter</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1195,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1225,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -1237,16 +1237,16 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1257,16 +1257,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1277,16 +1277,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1297,16 +1297,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1317,16 +1317,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1337,16 +1337,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1357,16 +1357,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1377,16 +1377,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1394,19 +1394,19 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1420,13 +1420,13 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1434,19 +1434,19 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1457,16 +1457,16 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1480,13 +1480,13 @@
         <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1494,19 +1494,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1514,19 +1514,19 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1534,19 +1534,19 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
         <v>91</v>
       </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>92</v>
-      </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1554,19 +1554,19 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1574,19 +1574,19 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1611,16 +1611,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>65</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1628,16 +1628,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
         <v>68</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>69</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1645,16 +1645,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
         <v>72</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>73</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1662,16 +1662,16 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
         <v>55</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1679,16 +1679,16 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1696,7 +1696,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">

--- a/Modules/kNOT/kNOT_BOM.xlsx
+++ b/Modules/kNOT/kNOT_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\kNOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6473D08-CCF9-4596-8534-BBBA4291436F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A78207-F407-41C5-A847-7BFB649CBE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
   <si>
     <t>Qty</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>Hex Inverter</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/hr/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1198,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,6 +1607,9 @@
       </c>
       <c r="E20" t="s">
         <v>29</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1726,6 +1732,7 @@
     <hyperlink ref="F23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="F22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="F16:F17" r:id="rId22" display="https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/" xr:uid="{F7F3E930-C37E-49FD-94C5-C7F28DAE1FF1}"/>
+    <hyperlink ref="F20" r:id="rId23" xr:uid="{50E58A42-5E92-4204-8ABD-524325B56B67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Modules/kNOT/kNOT_BOM.xlsx
+++ b/Modules/kNOT/kNOT_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\kNOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A78207-F407-41C5-A847-7BFB649CBE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B29844-EF39-48F7-9C5D-7131E45CFA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
   <si>
     <t>Qty</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>https://www.tme.eu/hr/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
+  </si>
+  <si>
+    <t>Thonkiconn</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1201,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,7 +1500,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>

--- a/Modules/kNOT/kNOT_BOM.xlsx
+++ b/Modules/kNOT/kNOT_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\kNOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B29844-EF39-48F7-9C5D-7131E45CFA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9066DB-C79A-437C-A33F-DAF46A2CBF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,12 +107,6 @@
     <t>DO-41</t>
   </si>
   <si>
-    <t>C-5mm</t>
-  </si>
-  <si>
-    <t>E2.5-6.3</t>
-  </si>
-  <si>
     <t>Resistor THT</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
     <t>U4</t>
   </si>
   <si>
-    <t>R-W4</t>
-  </si>
-  <si>
     <t>U1, U2</t>
   </si>
   <si>
@@ -152,12 +143,6 @@
     <t>IC Socket</t>
   </si>
   <si>
-    <t>Capacitor Ceramic THT</t>
-  </si>
-  <si>
-    <t>Capacitor Polarized THT</t>
-  </si>
-  <si>
     <t>Parts in itallic are on the front PCB!</t>
   </si>
   <si>
@@ -327,6 +312,21 @@
   </si>
   <si>
     <t>Thonkiconn</t>
+  </si>
+  <si>
+    <t>R-1/4W</t>
+  </si>
+  <si>
+    <t>C-P5mm</t>
+  </si>
+  <si>
+    <t>E-P2.5mm 6.3x11.5mm</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor THT</t>
+  </si>
+  <si>
+    <t>Electrolytic Capacitor THT</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -1243,16 +1243,16 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1263,16 +1263,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1283,16 +1283,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1303,16 +1303,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1323,16 +1323,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1343,16 +1343,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1366,13 +1366,13 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1386,13 +1386,13 @@
         <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1400,19 +1400,19 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1426,13 +1426,13 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1440,19 +1440,19 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1466,13 +1466,13 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1486,13 +1486,13 @@
         <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1500,19 +1500,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1520,19 +1520,19 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1540,19 +1540,19 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1560,19 +1560,19 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1580,19 +1580,19 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1600,19 +1600,19 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1620,16 +1620,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1637,16 +1637,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1654,16 +1654,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1671,16 +1671,16 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1688,16 +1688,16 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1705,7 +1705,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">

--- a/Modules/kNOT/kNOT_BOM.xlsx
+++ b/Modules/kNOT/kNOT_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\kNOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9066DB-C79A-437C-A33F-DAF46A2CBF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0760CE20-D0C8-4F64-9A66-7703AB293DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kNOT" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="107">
   <si>
     <t>Qty</t>
   </si>
@@ -143,9 +143,6 @@
     <t>IC Socket</t>
   </si>
   <si>
-    <t>Parts in itallic are on the front PCB!</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -155,27 +152,6 @@
     <t>https://www.aliexpress.com/item/1005003256812123.html</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/cm-100n-x7r_100/mlcc-tht-capacitors/sr-passives/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/jrg-47u_35/tht-electrolytic-capacitors/jb-capacitors/jrg1v470m02500630115000b/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/1n4001-dio/tht-universal-diodes/diotec-semiconductor/1n4001/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/1n4148-dio/tht-universal-diodes/diotec-semiconductor/1n4148/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/lm324n-ti/tht-operational-amplifiers/texas-instruments/lm324n/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/l78l05abz/unregulated-voltage-regulators/stmicroelectronics/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/oso5pa3he4b/tht-leds-3mm/optosupply/</t>
-  </si>
-  <si>
     <t>PJ398SM</t>
   </si>
   <si>
@@ -263,54 +239,21 @@
     <t>74HC04</t>
   </si>
   <si>
-    <t>R1, R2, R3, R4, R5, R6</t>
-  </si>
-  <si>
     <t>R7, R8, R9</t>
   </si>
   <si>
-    <t>R10, R11, R12</t>
-  </si>
-  <si>
-    <t>R13, R14, R15</t>
-  </si>
-  <si>
-    <t>C2, C3, C4, C5, C6</t>
-  </si>
-  <si>
-    <t>D1, D2, D3</t>
-  </si>
-  <si>
     <t>U1, U2, U3</t>
   </si>
   <si>
-    <t>LD_A, LD_B, LD_C</t>
-  </si>
-  <si>
-    <t>J_IN_A, J_IN_B, J_IN_C, J_OUT_A, J_OUT_B, J_OUT_C</t>
-  </si>
-  <si>
     <t>1x4</t>
   </si>
   <si>
     <t>J_A1, J_A3</t>
   </si>
   <si>
-    <t>J_B1, J_B3</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/cd74hc04e/gates-inverters/texas-instruments/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/</t>
-  </si>
-  <si>
     <t>Hex Inverter</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
-  </si>
-  <si>
     <t>Thonkiconn</t>
   </si>
   <si>
@@ -327,13 +270,451 @@
   </si>
   <si>
     <t>Electrolytic Capacitor THT</t>
+  </si>
+  <si>
+    <t>Avalon Harmonics kNOT</t>
+  </si>
+  <si>
+    <t>Alt Link</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/cm-100n-x7r_100/mlcc-tht-capacitors/sr-passives/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/jrg-47u_35/tht-electrolytic-capacitors/jb-capacitors/jrg1v470m02500630115000b/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/1n4001-dio/tht-universal-diodes/diotec-semiconductor/1n4001/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/1n4148-dio/tht-universal-diodes/diotec-semiconductor/1n4148/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/lm324n-ti/tht-operational-amplifiers/texas-instruments/lm324n/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/cd74hc04e/gates-inverters/texas-instruments/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/l78l05abz/unregulated-voltage-regulators/stmicroelectronics/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/oso5pa3he4b/tht-leds-3mm/optosupply/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p046/73P0034/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p050/73P0038/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p054/73P0042/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/icvt-14p/standard-dip-sockets/connfly/ds1009-14at1nx-0a2/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl262-4sg/pin-headers/connfly/ds1023-1-4s21/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl262-3sg/pin-headers/connfly/ds1023-1-3s21/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R12</t>
+    </r>
+  </si>
+  <si>
+    <t>R1-R6</t>
+  </si>
+  <si>
+    <t>C2-C6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LD_A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LD_B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LD_C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_IN_A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_IN_B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_IN_C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_OUT_A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_OUT_B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_OUT_C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_B1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J_B3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Parts  with underline are on the front PCB!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,7 +877,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -846,12 +1235,14 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1198,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,339 +1605,369 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="F11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="J12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="F14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
@@ -1554,188 +1975,247 @@
       <c r="F17" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
       </c>
       <c r="E18" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="J18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>87</v>
+        <v>47</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
+        <v>47</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="E20" t="s">
         <v>27</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+        <v>95</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="J23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="J24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="J27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F18" r:id="rId17" xr:uid="{3EC0FADE-B5DB-495B-A25A-8E9C82905237}"/>
-    <hyperlink ref="F12" r:id="rId18" xr:uid="{0D186728-B786-4B2E-9671-D0877C50C69C}"/>
-    <hyperlink ref="F24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F16:F17" r:id="rId22" display="https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/" xr:uid="{F7F3E930-C37E-49FD-94C5-C7F28DAE1FF1}"/>
-    <hyperlink ref="F20" r:id="rId23" xr:uid="{50E58A42-5E92-4204-8ABD-524325B56B67}"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F27" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J19" r:id="rId17" xr:uid="{3EC0FADE-B5DB-495B-A25A-8E9C82905237}"/>
+    <hyperlink ref="F13" r:id="rId18" xr:uid="{0D186728-B786-4B2E-9671-D0877C50C69C}"/>
+    <hyperlink ref="F25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F17:F18" r:id="rId22" display="https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/" xr:uid="{F7F3E930-C37E-49FD-94C5-C7F28DAE1FF1}"/>
+    <hyperlink ref="F21" r:id="rId23" xr:uid="{50E58A42-5E92-4204-8ABD-524325B56B67}"/>
+    <hyperlink ref="F17" r:id="rId24" xr:uid="{3E399706-9EC1-431B-AD19-FE5B90914E93}"/>
+    <hyperlink ref="F18" r:id="rId25" xr:uid="{6779E970-65B8-4206-B393-45EE96D5A7E8}"/>
+    <hyperlink ref="F3" r:id="rId26" xr:uid="{D321C547-CD58-4724-A04B-E0C6B8A12225}"/>
+    <hyperlink ref="F4" r:id="rId27" xr:uid="{6B737D48-67DC-4C5F-8B0D-F1E974D11A75}"/>
+    <hyperlink ref="F5" r:id="rId28" xr:uid="{E5FD6F18-5780-4884-A6D2-8762FBB8D19E}"/>
+    <hyperlink ref="F6" r:id="rId29" xr:uid="{F603AF18-9F04-4BE9-83FF-FCEBF50BE87C}"/>
+    <hyperlink ref="F11" r:id="rId30" xr:uid="{4313A3AA-304C-494B-8218-63F20BF91AC5}"/>
+    <hyperlink ref="F20" r:id="rId31" xr:uid="{753C3957-B785-4C2E-B432-67959234399B}"/>
+    <hyperlink ref="F19" r:id="rId32" xr:uid="{F3267F75-10C7-410D-BA21-80181D702A88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Modules/kNOT/kNOT_BOM.xlsx
+++ b/Modules/kNOT/kNOT_BOM.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\kNOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0760CE20-D0C8-4F64-9A66-7703AB293DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E71B06A-DF95-42C3-8BAE-1BF37DA34764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="kNOT" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1235,13 +1235,12 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -1592,7 +1591,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,7 +1643,7 @@
       <c r="C3" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>97</v>
       </c>
       <c r="E3" t="s">
@@ -1667,7 +1666,7 @@
       <c r="C4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>98</v>
       </c>
       <c r="E4" t="s">
@@ -1805,7 +1804,7 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>101</v>
       </c>
       <c r="E10" t="s">
@@ -1920,7 +1919,7 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" t="s">
         <v>102</v>
       </c>
       <c r="E15" t="s">
@@ -1943,7 +1942,7 @@
       <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" t="s">
         <v>103</v>
       </c>
       <c r="E16" t="s">
@@ -2012,7 +2011,7 @@
       <c r="C19" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E19" t="s">
@@ -2035,7 +2034,7 @@
       <c r="C20" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" t="s">
         <v>104</v>
       </c>
       <c r="E20" t="s">
@@ -2175,7 +2174,7 @@
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>106</v>
       </c>
     </row>
